--- a/python/two/night2 SD t1=6 t2=3 δ=0.9.xlsx
+++ b/python/two/night2 SD t1=6 t2=3 δ=0.9.xlsx
@@ -478,17 +478,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.19e-06</t>
+          <t>0.0123</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.02e+00</t>
+          <t>6.01e+00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.0134</t>
+          <t>0.018</t>
         </is>
       </c>
     </row>
@@ -505,22 +505,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.79e+00</t>
+          <t>5.66e+00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.0329</t>
+          <t>175.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.06e+00</t>
+          <t>5.96e+00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>55.6</t>
+          <t>0.04</t>
         </is>
       </c>
     </row>
@@ -537,22 +537,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.79e+00</t>
+          <t>5.67e+00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.0329</t>
+          <t>175.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.06e+00</t>
+          <t>5.96e+00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>55.7</t>
+          <t>0.04</t>
         </is>
       </c>
     </row>
@@ -569,22 +569,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>8.65e-01</t>
+          <t>8.41e-01</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.00123</t>
+          <t>27.7</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8.25e-01</t>
+          <t>1.80e-01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.655</t>
+          <t>0.209</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.23e-11</t>
+          <t>8.92e-07</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.02e-06</t>
+          <t>9.5e-07</t>
         </is>
       </c>
     </row>
